--- a/public/Vendor_Portal_Template.xlsx
+++ b/public/Vendor_Portal_Template.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64638\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78E573-73B4-48A0-86D9-254A5F410824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8391A5-C54F-4216-B0F1-976169623ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1B74D70-85CD-DC4F-9DE8-ED882C010349}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" r:id="rId2"/>
+    <sheet name="Condition" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>UPC</t>
   </si>
@@ -343,43 +345,16 @@
   </si>
   <si>
     <t>Additional Color 2</t>
-  </si>
-  <si>
-    <t>KDKD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Product EN Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>we</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Product CN Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2023/07/05/04/45/european-shorthair-8107433_640.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2023/07/05/04/45/european-shorthair-8107433_640.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Size Chart Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +369,69 @@
   <si>
     <t>Prepack #</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Value</t>
+  </si>
+  <si>
+    <t>Status Label</t>
+  </si>
+  <si>
+    <t>Status Display</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Closeout</t>
+  </si>
+  <si>
+    <t>Liquidation</t>
+  </si>
+  <si>
+    <t>Prelimnry</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Promotional</t>
+  </si>
+  <si>
+    <t>Condition Value</t>
+  </si>
+  <si>
+    <t>Condition Label</t>
+  </si>
+  <si>
+    <t>Condition Display</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Refurbished</t>
+  </si>
+  <si>
+    <t>Reconditioned</t>
+  </si>
+  <si>
+    <t>LikeNew</t>
+  </si>
+  <si>
+    <t>UsedGood</t>
+  </si>
+  <si>
+    <t>UsedPoor</t>
+  </si>
+  <si>
+    <t>Damaged</t>
   </si>
 </sst>
 </file>
@@ -403,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,13 +466,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -454,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +519,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -805,7 +862,7 @@
   <dimension ref="A1:DE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -815,25 +872,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -884,7 +941,7 @@
       <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Y1" t="s">
@@ -945,39 +1002,39 @@
         <v>39</v>
       </c>
       <c r="AR1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AS1" t="s">
         <v>40</v>
       </c>
       <c r="AT1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AU1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="BD1" t="s">
@@ -1064,7 +1121,7 @@
       <c r="CE1" t="s">
         <v>77</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>78</v>
       </c>
       <c r="CG1" t="s">
@@ -1085,8 +1142,8 @@
       <c r="CL1" t="s">
         <v>84</v>
       </c>
-      <c r="CM1" t="s">
-        <v>112</v>
+      <c r="CM1" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="CN1" t="s">
         <v>85</v>
@@ -1144,64 +1201,268 @@
       </c>
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>1</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="CF2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="CF2" r:id="rId1" xr:uid="{441A48F4-A4E7-4BF4-B590-B9B3AD700579}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B9AE1-34A3-49F0-A7D8-1FFC971F0D8F}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>A2 &amp; " – " &amp; B2</f>
+        <v>0 – Active</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:C9" si="0">A3 &amp; " – " &amp; B3</f>
+        <v>1 – Inactive</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2 – Discontinued</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3 – Closeout</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4 – Liquidation</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>5 – Prelimnry</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11 – New</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12 – Promotional</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B67F694-D0D7-487F-926E-9BA0FE554CD0}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>A2 &amp; " – " &amp; B2</f>
+        <v>0 – New</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:C9" si="0">A3 &amp; " – " &amp; B3</f>
+        <v>1 – Used</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2 – Refurbished</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4 – Reconditioned</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>8 – LikeNew</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9 – UsedGood</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>10 – UsedPoor</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11 – Damaged</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Vendor_Portal_Template.xlsx
+++ b/public/Vendor_Portal_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64638\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8391A5-C54F-4216-B0F1-976169623ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2CC935-165E-422B-9BE1-4C296A73117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1B74D70-85CD-DC4F-9DE8-ED882C010349}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>UPC</t>
   </si>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vendor SKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Harmonized #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,6 +428,14 @@
   </si>
   <si>
     <t>Damaged</t>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -859,348 +863,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C27F0-AEB8-F043-B982-1633E0AECFA0}">
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+      <selection activeCell="CT7" sqref="CT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="BB1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BK1" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BL1" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BM1" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BN1" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BO1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BP1" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BQ1" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BR1" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BS1" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BU1" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BV1" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BW1" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BX1" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BY1" t="s">
         <v>64</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BZ1" t="s">
         <v>65</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CA1" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CB1" t="s">
         <v>67</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CC1" t="s">
         <v>68</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CD1" t="s">
         <v>69</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CE1" t="s">
         <v>70</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CF1" t="s">
         <v>71</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CG1" t="s">
         <v>72</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CH1" t="s">
         <v>73</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CI1" t="s">
         <v>74</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CJ1" t="s">
         <v>75</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CK1" t="s">
         <v>76</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CL1" t="s">
         <v>77</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CN1" t="s">
         <v>79</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CO1" t="s">
         <v>80</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CP1" t="s">
         <v>81</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CQ1" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CR1" t="s">
         <v>83</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CS1" t="s">
         <v>84</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CU1" t="s">
         <v>85</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CV1" t="s">
         <v>86</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CW1" t="s">
         <v>87</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CX1" t="s">
         <v>88</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CY1" t="s">
         <v>89</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CZ1" t="s">
         <v>90</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DA1" t="s">
         <v>91</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DB1" t="s">
         <v>92</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DC1" t="s">
         <v>93</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DD1" t="s">
         <v>94</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DE1" t="s">
         <v>95</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DF1" t="s">
         <v>96</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DG1" t="s">
         <v>97</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DH1" t="s">
         <v>98</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DI1" t="s">
         <v>99</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DJ1" t="s">
         <v>100</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DK1" t="s">
         <v>101</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DL1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="G2" s="2"/>
@@ -1233,13 +1259,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>A2 &amp; " – " &amp; B2</f>
@@ -1259,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C9" si="0">A3 &amp; " – " &amp; B3</f>
@@ -1271,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1283,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1295,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1307,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1319,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1331,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1356,13 +1382,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>A2 &amp; " – " &amp; B2</f>
@@ -1382,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C9" si="0">A3 &amp; " – " &amp; B3</f>
@@ -1394,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1418,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1430,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1442,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1454,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
